--- a/Kmeans-BinarizedTimeSeries-Rowmeans-Neuronics-Pathways.xlsx
+++ b/Kmeans-BinarizedTimeSeries-Rowmeans-Neuronics-Pathways.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BCBD7E-48DC-704F-A0FA-B596A4F3B8CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AC242-7D65-2E4B-A822-8FB38256A564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="460" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>thresholds</t>
   </si>
@@ -253,16 +254,157 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -583,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,9 +742,10 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -642,8 +785,47 @@
       <c r="N1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -686,8 +868,50 @@
       <c r="N2">
         <v>1132.4783608868752</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1132.4783608868752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -730,8 +954,50 @@
       <c r="N3">
         <v>48588.74739615</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>8113.8356298593753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -774,8 +1040,50 @@
       <c r="N4">
         <v>6148.1905374124999</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>23612.873557136365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -818,8 +1126,50 @@
       <c r="N5">
         <v>54810.120231944449</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>21713.048916094998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -862,8 +1212,50 @@
       <c r="N6">
         <v>8113.8356298593753</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1055.0037499999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -906,8 +1298,50 @@
       <c r="N7">
         <v>23612.873557136365</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1707.0133213218751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -950,8 +1384,50 @@
       <c r="N8">
         <v>33138.567464874999</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>4457.7384474999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1470,50 @@
       <c r="N9">
         <v>21713.048916094998</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>50987.686758642856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1038,8 +1556,50 @@
       <c r="N10">
         <v>1055.0037499999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>31233.309172499998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1642,50 @@
       <c r="N11">
         <v>8807.2692784687497</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>4729.8290149999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1126,8 +1728,50 @@
       <c r="N12">
         <v>3403.3562220857139</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>30955.422825000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1170,8 +1814,50 @@
       <c r="N13">
         <v>16385.92231363889</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>25846.520124950002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1214,8 +1900,50 @@
       <c r="N14">
         <v>10122.58234605</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>8790.007375000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1258,8 +1986,50 @@
       <c r="N15">
         <v>1707.0133213218751</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>8059.8814225000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1302,8 +2072,50 @@
       <c r="N16">
         <v>4457.7384474999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>16513.990670027779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +2158,50 @@
       <c r="N17">
         <v>50987.686758642856</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>15459.480584200002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1390,8 +2244,50 @@
       <c r="N18">
         <v>7554.6182823750005</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>4796.3386848540003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1434,8 +2330,50 @@
       <c r="N19">
         <v>31233.309172499998</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>5739.5694928571429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1478,8 +2416,50 @@
       <c r="N20">
         <v>4729.8290149999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>4406.7792892857142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1522,8 +2502,50 @@
       <c r="N21">
         <v>30955.422825000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>24269.091083333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1566,8 +2588,50 @@
       <c r="N22">
         <v>17596.447731749999</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>5666.0307499999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1610,8 +2674,50 @@
       <c r="N23">
         <v>3766.9713727781254</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>7397.5312701666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1654,8 +2760,50 @@
       <c r="N24">
         <v>2874.1684880958337</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>114368.79554416667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1698,8 +2846,50 @@
       <c r="N25">
         <v>25846.520124950002</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>114368.79554416667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1742,8 +2932,50 @@
       <c r="N26">
         <v>8790.007375000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>43</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>1063.9984162781248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1786,8 +3018,50 @@
       <c r="N27">
         <v>2135.6815355475001</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>1790.3842538399999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1830,8 +3104,50 @@
       <c r="N28">
         <v>8059.8814225000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>8723.8563353785721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1874,8 +3190,50 @@
       <c r="N29">
         <v>4664.7371575000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>39694.114400000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1918,8 +3276,50 @@
       <c r="N30">
         <v>16513.990670027779</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>15923.38402142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1962,8 +3362,50 @@
       <c r="N31">
         <v>15459.480584200002</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>8942.058324021873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2005,6 +3447,48 @@
       </c>
       <c r="N32">
         <v>4796.3386848540003</v>
+      </c>
+      <c r="R32" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>3838.1124972222228</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2977,10 +4461,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:M54">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AD2">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:AD4">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:AD6">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7:AD9">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10:AD12">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:AD14">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S15:AD15">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:AD23">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:AD24">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:AD25">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:AD27">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28:AD29">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S30:AD30">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31:AD32">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610A0C75-5C0D-8840-83BF-2BBDE95AEA2C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>